--- a/Graph.xlsx
+++ b/Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asham\PyCharmProjects\Algos-HW-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35228F7C-802F-4203-AE2B-E4A0E1B8527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115D3A61-F9C6-45DB-9617-624362353597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{437F2D7F-8147-4226-9665-6678046F9477}"/>
   </bookViews>
@@ -138,7 +138,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Matcher.py Benchmarking</a:t>
+              <a:t>Matcher.py Scaling</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -636,7 +636,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Checker.py Benchmarking</a:t>
+              <a:t>Checker.py Scaling</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2597,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4E082-EDF0-4222-82A9-0CA1A17F26DD}">
   <dimension ref="A4:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
